--- a/Texts/Город Сокровищ/Предместья/Мыс Шарпедо.xlsx
+++ b/Texts/Город Сокровищ/Предместья/Мыс Шарпедо.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>SCRIPT/H01P99A/enter12.ssb</t>
   </si>
@@ -49,6 +49,93 @@
   </si>
   <si>
     <t>[CN]\n[CN]Ãïñïä Òïëñïâéþ →</t>
+  </si>
+  <si>
+    <t>SCRIPT/H01P99A/c00a1001.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m beat! It was a long day!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We put in a full day today.\nI\'m exhausted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We worked hard all day long.\nI\'m tired!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We should get some sleep now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We can be rested up for another\ngood day tomorrow.</t>
+  </si>
+  <si>
+    <t>31, 35, 39</t>
+  </si>
+  <si>
+    <t>45, 49, 53</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как же я устал! Это был\nдолгий день!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы проработали целый день.\nЯ вымотался.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы работали весь день\nнапролёт. Я так устала!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно поспать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Отдохнём и завтра начнём\nновый день!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë çå ÿ ôòóàì! Üóï áúì\näïìãéê äåîû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðñïñàáïóàìé øåìúê äåîû.\nŸ âúíïóàìòÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ñàáïóàìé âåòû äåîû\nîàðñïìæó. Ÿ óàë ôòóàìà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï ðïòðàóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïóäïöîæí é èàâóñà îàœîæí\nîïâúê äåîû!</t>
+  </si>
+  <si>
+    <t>[CN]The next morning…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good morning, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s make it another great day!</t>
+  </si>
+  <si>
+    <t>68, 72, 76</t>
+  </si>
+  <si>
+    <t>82, 86, 90</t>
+  </si>
+  <si>
+    <t>[CN]На следующее утро...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Доброе утро, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Давай проведём этот день с\nпользой!</t>
+  </si>
+  <si>
+    <t>[CN]Îà òìåäôýþåå ôóñï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïáñïå ôóñï, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äàâàê ðñïâåäæí üóïó äåîû ò\nðïìûèïê!</t>
   </si>
 </sst>
 </file>
@@ -442,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,6 +588,122 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
